--- a/data/dataSchemas/processingPipelineSchema.xlsx
+++ b/data/dataSchemas/processingPipelineSchema.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/data/dataSchemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{C2D895B9-4381-46C9-BE1A-BB38FE0B8351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{11CDD32A-01E7-42BF-AF0D-0E7B7254D270}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{C2D895B9-4381-46C9-BE1A-BB38FE0B8351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{22429932-CDB4-42B3-9C55-97D351353BC6}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="915" windowWidth="15795" windowHeight="20835" xr2:uid="{3244EBFB-4E91-45FC-B66B-30D163E3937A}"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="12150" windowHeight="20835" xr2:uid="{3244EBFB-4E91-45FC-B66B-30D163E3937A}"/>
   </bookViews>
   <sheets>
     <sheet name="environmentalSample" sheetId="1" r:id="rId1"/>
-    <sheet name="zebrafish" sheetId="2" r:id="rId2"/>
+    <sheet name="zebrafish raw data" sheetId="2" r:id="rId2"/>
+    <sheet name="zebrafish processed data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>SampleNumber</t>
   </si>
@@ -140,13 +141,58 @@
   </si>
   <si>
     <t>Friendly Name</t>
+  </si>
+  <si>
+    <t>xe</t>
+  </si>
+  <si>
+    <t>chemical.id</t>
+  </si>
+  <si>
+    <t>bottle.id</t>
+  </si>
+  <si>
+    <t>conc</t>
+  </si>
+  <si>
+    <t>plate.id</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Allowable values</t>
+  </si>
+  <si>
+    <t>Sample Type</t>
+  </si>
+  <si>
+    <t>listed in endpoint document</t>
+  </si>
+  <si>
+    <t>sometimes dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sometimes starts with capital c </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +203,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,9 +236,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,35 +557,35 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -547,6 +602,9 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,12 +747,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8195C8AF-1391-4971-A3E9-D806C9281E82}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CD4DCF-1B79-4177-B7ED-B92E006C3042}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/dataSchemas/processingPipelineSchema.xlsx
+++ b/data/dataSchemas/processingPipelineSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/data/dataSchemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{C2D895B9-4381-46C9-BE1A-BB38FE0B8351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{22429932-CDB4-42B3-9C55-97D351353BC6}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{C2D895B9-4381-46C9-BE1A-BB38FE0B8351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D8419B3-6EFF-4FF7-BBC3-26CF0AB1052A}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="12150" windowHeight="20835" xr2:uid="{3244EBFB-4E91-45FC-B66B-30D163E3937A}"/>
+    <workbookView xWindow="6390" yWindow="1170" windowWidth="12150" windowHeight="14430" xr2:uid="{3244EBFB-4E91-45FC-B66B-30D163E3937A}"/>
   </bookViews>
   <sheets>
     <sheet name="environmentalSample" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>SampleNumber</t>
   </si>
@@ -186,6 +186,93 @@
   </si>
   <si>
     <t xml:space="preserve">sometimes starts with capital c </t>
+  </si>
+  <si>
+    <t>Date sampled</t>
+  </si>
+  <si>
+    <t>Sample Number</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>Location Name</t>
+  </si>
+  <si>
+    <t>Location Description</t>
+  </si>
+  <si>
+    <t>Alternate Name</t>
+  </si>
+  <si>
+    <t>Chemical ID</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>ZF Lims Id</t>
+  </si>
+  <si>
+    <t>CAS Number</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Concentration Unity</t>
+  </si>
+  <si>
+    <t>Sample Concentration</t>
+  </si>
+  <si>
+    <t>Sample Molar Concentration</t>
+  </si>
+  <si>
+    <t>Environmental Concentration</t>
+  </si>
+  <si>
+    <t>Environmental Concentration Unit</t>
+  </si>
+  <si>
+    <t>Environmental Molar Concentration</t>
+  </si>
+  <si>
+    <t>Environmental Molar Concentration Unit</t>
+  </si>
+  <si>
+    <t>Sample Molar Concentration Unit</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Parent Sample Number</t>
+  </si>
+  <si>
+    <t>Child Sample Number</t>
   </si>
 </sst>
 </file>
@@ -557,14 +644,14 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
@@ -593,11 +680,20 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -606,138 +702,265 @@
       <c r="B4" t="s">
         <v>46</v>
       </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dataSchemas/processingPipelineSchema.xlsx
+++ b/data/dataSchemas/processingPipelineSchema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/data/dataSchemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gosl241\OneDrive - PNNL\Documents\GitHub\srpAnalytics\data\dataSchemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{C2D895B9-4381-46C9-BE1A-BB38FE0B8351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D8419B3-6EFF-4FF7-BBC3-26CF0AB1052A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3244A6-37A0-4D03-9097-EDB795CEC2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1170" windowWidth="12150" windowHeight="14430" xr2:uid="{3244EBFB-4E91-45FC-B66B-30D163E3937A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{3244EBFB-4E91-45FC-B66B-30D163E3937A}"/>
   </bookViews>
   <sheets>
     <sheet name="environmentalSample" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>SampleNumber</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Friendly Name</t>
   </si>
   <si>
-    <t>xe</t>
-  </si>
-  <si>
     <t>chemical.id</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
     <t>listed in endpoint document</t>
   </si>
   <si>
-    <t>sometimes dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sometimes starts with capital c </t>
-  </si>
-  <si>
     <t>Date sampled</t>
   </si>
   <si>
@@ -273,6 +264,27 @@
   </si>
   <si>
     <t>Child Sample Number</t>
+  </si>
+  <si>
+    <t>Internal chemical identifier</t>
+  </si>
+  <si>
+    <t>Dose of chemical</t>
+  </si>
+  <si>
+    <t>Plate identifier</t>
+  </si>
+  <si>
+    <t>Well of plate</t>
+  </si>
+  <si>
+    <t>Date assay was completed</t>
+  </si>
+  <si>
+    <t>Endpoint measured</t>
+  </si>
+  <si>
+    <t>Response (number of fish with phenotype?</t>
   </si>
 </sst>
 </file>
@@ -644,7 +656,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,10 +756,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,10 +778,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,10 +789,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,10 +800,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,10 +811,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,10 +822,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,10 +833,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,10 +844,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,10 +855,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,10 +874,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,10 +896,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,10 +907,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -911,7 +923,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,7 +931,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,7 +939,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,7 +947,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,7 +955,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,7 +963,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,7 +971,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -970,77 +982,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8195C8AF-1391-4971-A3E9-D806C9281E82}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
+      <c r="C9" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1050,15 +1081,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CD4DCF-1B79-4177-B7ED-B92E006C3042}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>35</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
